--- a/cases/NorthSea/Networks/NetworkDataElectricity.xlsx
+++ b/cases/NorthSea/Networks/NetworkDataElectricity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E878516-BCAF-4876-AF27-8E867354EF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDE8C1-BD01-476D-9D7A-1F516A8B29A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkType" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -270,7 +270,7 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>onNL_SW</v>
+            <v>onNL_W</v>
           </cell>
         </row>
         <row r="6">
@@ -625,7 +625,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>onNL_NE</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -930,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A4FB2D-12DB-48B7-BD9E-1F9FED4CCCBB}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +959,7 @@
         <v>onNL_NW</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="F1" s="1" t="str">
         <v>onNL_CE</v>
@@ -1100,7 +1106,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
@@ -1428,7 +1434,7 @@
         <v>onNL_NW</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="F1" s="1" t="str">
         <v>onNL_CE</v>
@@ -1576,7 +1582,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="D5" s="1">
         <v>5595</v>
@@ -1883,7 +1889,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,7 +1912,7 @@
         <v>onNL_NW</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="F1" s="1" t="str">
         <v>onNL_CE</v>
@@ -2000,7 +2006,7 @@
       </c>
       <c r="E2" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A2&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>243.21510747729999</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A2&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2117,7 +2123,7 @@
       </c>
       <c r="E3" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A3&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>147.82111732788701</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A3&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2234,7 +2240,7 @@
       </c>
       <c r="E4" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A4&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>153.91234990589899</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A4&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2335,119 +2341,119 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;B$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>243.21510747729999</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;C$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>147.82111732788701</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;D$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>153.912349905898</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>83.093200778342691</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>108.088684080319</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;G$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>83.093200778342691</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;H$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>50.205090619627903</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;I$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>178.52220075011698</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;J$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>107.627545174894</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;K$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>457.098685014571</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;L$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>532.55721040192498</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;M$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>1031.10708531146</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;N$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>637.440239529775</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;O$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>153.386328249652</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;P$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>162.80775113988099</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Q$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>60.515231551867501</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;R$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>68.274055110146307</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;S$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>133.52681243087798</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;T$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>128.18422819891001</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;U$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>107.43156261658399</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;V$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>317.71416780100799</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;W$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>322.81669985697403</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;X$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>92.603955501506292</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Y$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>97.802284849013304</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Z$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>141.95268198029601</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AA$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>140.72820914913802</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AB$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>131.558974653143</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AC$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>175.18128715311701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -2468,7 +2474,7 @@
       </c>
       <c r="E6" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A6&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>108.088684080319</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A6&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2585,7 +2591,7 @@
       </c>
       <c r="E7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>83.093200778342691</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2702,7 +2708,7 @@
       </c>
       <c r="E8" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A8&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>50.205090619627804</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A8&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2819,7 +2825,7 @@
       </c>
       <c r="E9" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A9&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>178.52220075011698</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A9&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2936,7 +2942,7 @@
       </c>
       <c r="E10" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A10&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>107.627545174894</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A10&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3053,7 +3059,7 @@
       </c>
       <c r="E11" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A11&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>457.098685014571</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A11&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3170,7 +3176,7 @@
       </c>
       <c r="E12" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A12&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>532.55721040192498</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A12&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3287,7 +3293,7 @@
       </c>
       <c r="E13" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A13&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>1031.10708531146</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A13&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3404,7 +3410,7 @@
       </c>
       <c r="E14" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A14&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>637.440239529775</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A14&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3521,7 +3527,7 @@
       </c>
       <c r="E15" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A15&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>153.38632824965299</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A15&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3638,7 +3644,7 @@
       </c>
       <c r="E16" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A16&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>162.80775113988099</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A16&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3755,7 +3761,7 @@
       </c>
       <c r="E17" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A17&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>60.515231551867302</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A17&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3872,7 +3878,7 @@
       </c>
       <c r="E18" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A18&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>68.274055110146392</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A18&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3989,7 +3995,7 @@
       </c>
       <c r="E19" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A19&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>133.526812430879</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A19&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4106,7 +4112,7 @@
       </c>
       <c r="E20" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A20&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>128.18422819891001</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A20&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4223,7 +4229,7 @@
       </c>
       <c r="E21" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A21&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>107.431562616585</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A21&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4340,7 +4346,7 @@
       </c>
       <c r="E22" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A22&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>317.71416780100697</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A22&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4457,7 +4463,7 @@
       </c>
       <c r="E23" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A23&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>322.816699856973</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A23&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4574,7 +4580,7 @@
       </c>
       <c r="E24" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A24&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>92.603955501506107</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A24&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4691,7 +4697,7 @@
       </c>
       <c r="E25" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A25&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>97.802284849013404</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A25&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4808,7 +4814,7 @@
       </c>
       <c r="E26" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A26&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>141.95268198029498</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A26&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4925,7 +4931,7 @@
       </c>
       <c r="E27" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A27&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>140.72820914913802</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A27&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5042,7 +5048,7 @@
       </c>
       <c r="E28" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A28&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>131.558974653143</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A28&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5159,7 +5165,7 @@
       </c>
       <c r="E29" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A29&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>175.18128715311701</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A29&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5514,7 +5520,7 @@
         <v>onNL_NW</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="F1" s="1" t="str">
         <v>onNL_CE</v>
@@ -5619,7 +5625,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -6005,8 +6011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AE2CA2-8C01-424C-AA08-A823A4F540EB}">
   <dimension ref="A1:N1191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G339" sqref="G339"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6933,16 +6939,16 @@
         <f>_xlfn.XLOOKUP(K32,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_A</v>
       </c>
-      <c r="B32" t="e">
+      <c r="B32">
         <f>_xlfn.XLOOKUP(L32,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>189298.15485214701</v>
       </c>
-      <c r="D32" t="e">
+      <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_A-0</v>
       </c>
       <c r="K32" t="s">
         <v>17</v>
@@ -7878,16 +7884,16 @@
         <f>_xlfn.XLOOKUP(K64,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B64" t="e">
+      <c r="B64">
         <f>_xlfn.XLOOKUP(L64,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>243258.959951344</v>
       </c>
-      <c r="D64" t="e">
+      <c r="D64" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_B-0</v>
       </c>
       <c r="K64" t="s">
         <v>24</v>
@@ -7986,16 +7992,16 @@
         <f>_xlfn.XLOOKUP(K68,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_B</v>
       </c>
-      <c r="B68" t="e">
+      <c r="B68">
         <f>_xlfn.XLOOKUP(L68,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>43293.153630168999</v>
       </c>
-      <c r="D68" t="e">
+      <c r="D68" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_B-0</v>
       </c>
       <c r="K68" t="s">
         <v>24</v>
@@ -8931,16 +8937,16 @@
         <f>_xlfn.XLOOKUP(K100,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_B</v>
       </c>
-      <c r="B100" t="e">
+      <c r="B100">
         <f>_xlfn.XLOOKUP(L100,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>62641.5905742057</v>
       </c>
-      <c r="D100" t="e">
+      <c r="D100" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_B-0</v>
       </c>
       <c r="K100" t="s">
         <v>15</v>
@@ -9876,16 +9882,16 @@
         <f>_xlfn.XLOOKUP(K132,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B132" t="e">
+      <c r="B132">
         <f>_xlfn.XLOOKUP(L132,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>239787.17305983001</v>
       </c>
-      <c r="D132" t="e">
+      <c r="D132" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_A-0</v>
       </c>
       <c r="K132" t="s">
         <v>25</v>
@@ -9984,16 +9990,16 @@
         <f>_xlfn.XLOOKUP(K136,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KZ_A</v>
       </c>
-      <c r="B136" t="e">
+      <c r="B136">
         <f>_xlfn.XLOOKUP(L136,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>35854.475232938297</v>
       </c>
-      <c r="D136" t="e">
+      <c r="D136" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_KZ_A-0</v>
       </c>
       <c r="K136" t="s">
         <v>25</v>
@@ -10929,16 +10935,16 @@
         <f>_xlfn.XLOOKUP(K168,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_A</v>
       </c>
-      <c r="B168" t="e">
+      <c r="B168">
         <f>_xlfn.XLOOKUP(L168,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C168">
         <v>50719.675995306497</v>
       </c>
-      <c r="D168" t="e">
+      <c r="D168" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_A-0</v>
       </c>
       <c r="K168" t="s">
         <v>16</v>
@@ -11874,16 +11880,16 @@
         <f>_xlfn.XLOOKUP(K200,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B200" t="e">
+      <c r="B200">
         <f>_xlfn.XLOOKUP(L200,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C200">
         <v>335695.77826090698</v>
       </c>
-      <c r="D200" t="e">
+      <c r="D200" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_B-0</v>
       </c>
       <c r="K200" t="s">
         <v>18</v>
@@ -11982,16 +11988,16 @@
         <f>_xlfn.XLOOKUP(K204,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B204" t="e">
+      <c r="B204">
         <f>_xlfn.XLOOKUP(L204,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C204">
         <v>105620.141778031</v>
       </c>
-      <c r="D204" t="e">
+      <c r="D204" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_B-0</v>
       </c>
       <c r="K204" t="s">
         <v>18</v>
@@ -12927,16 +12933,16 @@
         <f>_xlfn.XLOOKUP(K236,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B236" t="e">
+      <c r="B236">
         <f>_xlfn.XLOOKUP(L236,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C236">
         <v>34510.693526842901</v>
       </c>
-      <c r="D236" t="e">
+      <c r="D236" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_G-0</v>
       </c>
       <c r="K236" t="s">
         <v>30</v>
@@ -13872,16 +13878,16 @@
         <f>_xlfn.XLOOKUP(K268,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B268" t="e">
+      <c r="B268">
         <f>_xlfn.XLOOKUP(L268,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C268">
         <v>333896.939035255</v>
       </c>
-      <c r="D268" t="e">
+      <c r="D268" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_SW-0</v>
       </c>
       <c r="K268" t="s">
         <v>2</v>
@@ -13980,16 +13986,16 @@
         <f>_xlfn.XLOOKUP(K272,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B272" t="e">
+      <c r="B272">
         <f>_xlfn.XLOOKUP(L272,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C272">
         <v>123066.493839898</v>
       </c>
-      <c r="D272" t="e">
+      <c r="D272" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_SW-0</v>
       </c>
       <c r="K272" t="s">
         <v>2</v>
@@ -14925,16 +14931,16 @@
         <f>_xlfn.XLOOKUP(K304,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B304" t="e">
+      <c r="B304">
         <f>_xlfn.XLOOKUP(L304,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C304">
         <v>216168.19040934701</v>
       </c>
-      <c r="D304" t="e">
+      <c r="D304" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_CE-0</v>
       </c>
       <c r="K304" t="s">
         <v>3</v>
@@ -15870,16 +15876,16 @@
         <f>_xlfn.XLOOKUP(K336,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B336" t="e">
+      <c r="B336">
         <f>_xlfn.XLOOKUP(L336,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C336">
         <v>408852.69484884501</v>
       </c>
-      <c r="D336" t="e">
+      <c r="D336" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onBE-0</v>
       </c>
       <c r="K336" t="s">
         <v>4</v>
@@ -15978,16 +15984,16 @@
         <f>_xlfn.XLOOKUP(K340,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B340" t="e">
+      <c r="B340">
         <f>_xlfn.XLOOKUP(L340,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C340">
         <v>225024.29218901301</v>
       </c>
-      <c r="D340" t="e">
+      <c r="D340" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onBE-0</v>
       </c>
       <c r="K340" t="s">
         <v>4</v>
@@ -16923,16 +16929,16 @@
         <f>_xlfn.XLOOKUP(K372,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B372" t="e">
+      <c r="B372">
         <f>_xlfn.XLOOKUP(L372,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C372">
         <v>502776.439987569</v>
       </c>
-      <c r="D372" t="e">
+      <c r="D372" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onDE-0</v>
       </c>
       <c r="K372" t="s">
         <v>5</v>
@@ -17868,16 +17874,16 @@
         <f>_xlfn.XLOOKUP(K404,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B404" t="e">
+      <c r="B404">
         <f>_xlfn.XLOOKUP(L404,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C404">
         <v>546416.48772987502</v>
       </c>
-      <c r="D404" t="e">
+      <c r="D404" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onUK-0</v>
       </c>
       <c r="K404" t="s">
         <v>6</v>
@@ -17976,16 +17982,16 @@
         <f>_xlfn.XLOOKUP(K408,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B408" t="e">
+      <c r="B408">
         <f>_xlfn.XLOOKUP(L408,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C408">
         <v>458738.52649916598</v>
       </c>
-      <c r="D408" t="e">
+      <c r="D408" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onUK-0</v>
       </c>
       <c r="K408" t="s">
         <v>6</v>
@@ -18921,16 +18927,16 @@
         <f>_xlfn.XLOOKUP(K440,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B440" t="e">
+      <c r="B440">
         <f>_xlfn.XLOOKUP(L440,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C440">
         <v>473290.932268965</v>
       </c>
-      <c r="D440" t="e">
+      <c r="D440" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onDKW-0</v>
       </c>
       <c r="K440" t="s">
         <v>7</v>
@@ -19974,16 +19980,16 @@
         <f>_xlfn.XLOOKUP(K476,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B476" t="e">
+      <c r="B476">
         <f>_xlfn.XLOOKUP(L476,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C476">
         <v>174614.91081389401</v>
       </c>
-      <c r="D476" t="e">
+      <c r="D476" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNL_E-0</v>
       </c>
       <c r="K476" t="s">
         <v>8</v>
@@ -21864,16 +21870,16 @@
         <f>_xlfn.XLOOKUP(K540,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B540" t="e">
+      <c r="B540">
         <f>_xlfn.XLOOKUP(L540,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C540">
         <v>190144.53432957301</v>
       </c>
-      <c r="D540" t="e">
+      <c r="D540" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NW-0</v>
       </c>
       <c r="K540" t="s">
         <v>10</v>
@@ -21972,16 +21978,16 @@
         <f>_xlfn.XLOOKUP(K544,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B544" t="e">
+      <c r="B544">
         <f>_xlfn.XLOOKUP(L544,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C544">
         <v>103752.93805857201</v>
       </c>
-      <c r="D544" t="e">
+      <c r="D544" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NW-0</v>
       </c>
       <c r="K544" t="s">
         <v>10</v>
@@ -23970,16 +23976,16 @@
         <f>_xlfn.XLOOKUP(K612,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B612" t="e">
+      <c r="B612">
         <f>_xlfn.XLOOKUP(L612,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C612">
         <v>125761.73073086</v>
       </c>
-      <c r="D612" t="e">
+      <c r="D612" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_CW-0</v>
       </c>
       <c r="K612" t="s">
         <v>12</v>
@@ -24915,16 +24921,16 @@
         <f>_xlfn.XLOOKUP(K644,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B644" t="e">
+      <c r="B644">
         <f>_xlfn.XLOOKUP(L644,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C644">
         <v>153196.85969856899</v>
       </c>
-      <c r="D644" t="e">
+      <c r="D644" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_SW-0</v>
       </c>
       <c r="K644" t="s">
         <v>13</v>
@@ -25860,16 +25866,16 @@
         <f>_xlfn.XLOOKUP(K676,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B676" t="e">
+      <c r="B676">
         <f>_xlfn.XLOOKUP(L676,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C676">
         <v>342139.68119642697</v>
       </c>
-      <c r="D676" t="e">
+      <c r="D676" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_SE-0</v>
       </c>
       <c r="K676" t="s">
         <v>14</v>
@@ -26913,16 +26919,16 @@
         <f>_xlfn.XLOOKUP(K712,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B712" t="e">
+      <c r="B712">
         <f>_xlfn.XLOOKUP(L712,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C712">
         <v>82078.612033989004</v>
       </c>
-      <c r="D712" t="e">
+      <c r="D712" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_EG-0</v>
       </c>
       <c r="K712" t="s">
         <v>19</v>
@@ -27966,16 +27972,16 @@
         <f>_xlfn.XLOOKUP(K748,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B748" t="e">
+      <c r="B748">
         <f>_xlfn.XLOOKUP(L748,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C748">
         <v>40196.7046414453</v>
       </c>
-      <c r="D748" t="e">
+      <c r="D748" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_PA-0</v>
       </c>
       <c r="K748" t="s">
         <v>20</v>
@@ -28911,16 +28917,16 @@
         <f>_xlfn.XLOOKUP(K780,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B780" t="e">
+      <c r="B780">
         <f>_xlfn.XLOOKUP(L780,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C780">
         <v>99859.301224056602</v>
       </c>
-      <c r="D780" t="e">
+      <c r="D780" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_LU-0</v>
       </c>
       <c r="K780" t="s">
         <v>21</v>
@@ -29964,16 +29970,16 @@
         <f>_xlfn.XLOOKUP(K816,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_B</v>
       </c>
-      <c r="B816" t="e">
+      <c r="B816">
         <f>_xlfn.XLOOKUP(L816,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C816">
         <v>222672.535046134</v>
       </c>
-      <c r="D816" t="e">
+      <c r="D816" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_B-0</v>
       </c>
       <c r="K816" t="s">
         <v>22</v>
@@ -30909,16 +30915,16 @@
         <f>_xlfn.XLOOKUP(K848,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B848" t="e">
+      <c r="B848">
         <f>_xlfn.XLOOKUP(L848,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C848">
         <v>158872.27340384701</v>
       </c>
-      <c r="D848" t="e">
+      <c r="D848" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_A-0</v>
       </c>
       <c r="K848" t="s">
         <v>23</v>
@@ -31962,16 +31968,16 @@
         <f>_xlfn.XLOOKUP(K884,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B884" t="e">
+      <c r="B884">
         <f>_xlfn.XLOOKUP(L884,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C884">
         <v>45732.373151166699</v>
       </c>
-      <c r="D884" t="e">
+      <c r="D884" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_KN-0</v>
       </c>
       <c r="K884" t="s">
         <v>26</v>
@@ -32907,16 +32913,16 @@
         <f>_xlfn.XLOOKUP(K916,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B916" t="e">
+      <c r="B916">
         <f>_xlfn.XLOOKUP(L916,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C916">
         <v>64805.814007759604</v>
       </c>
-      <c r="D916" t="e">
+      <c r="D916" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="K916" t="s">
         <v>27</v>
@@ -33960,16 +33966,16 @@
         <f>_xlfn.XLOOKUP(K952,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B952" t="e">
+      <c r="B952">
         <f>_xlfn.XLOOKUP(L952,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C952">
         <v>10424.166929765899</v>
       </c>
-      <c r="D952" t="e">
+      <c r="D952" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_B-0</v>
       </c>
       <c r="K952" t="s">
         <v>28</v>
@@ -34908,9 +34914,9 @@
         <f>_xlfn.XLOOKUP(K984,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B984" t="e">
+      <c r="B984">
         <f>_xlfn.XLOOKUP(L984,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C984">
         <v>50387.045437731802</v>
@@ -35964,9 +35970,9 @@
         <f>_xlfn.XLOOKUP(K1020,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1020" t="e">
+      <c r="B1020">
         <f>_xlfn.XLOOKUP(L1020,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1020">
         <v>230588.596779532</v>
@@ -36912,9 +36918,9 @@
         <f>_xlfn.XLOOKUP(K1052,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1052" t="e">
+      <c r="B1052">
         <f>_xlfn.XLOOKUP(L1052,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1052">
         <v>58403.493250702799</v>
@@ -37860,9 +37866,9 @@
         <f>_xlfn.XLOOKUP(K1084,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1084" t="e">
+      <c r="B1084">
         <f>_xlfn.XLOOKUP(L1084,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1084">
         <v>50387.045437731802</v>
@@ -37968,9 +37974,9 @@
         <f>_xlfn.XLOOKUP(K1088,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1088" t="e">
+      <c r="B1088">
         <f>_xlfn.XLOOKUP(L1088,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1088">
         <v>85732.578229217295</v>
@@ -38916,9 +38922,9 @@
         <f>_xlfn.XLOOKUP(K1120,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1120" t="e">
+      <c r="B1120">
         <f>_xlfn.XLOOKUP(L1120,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1120">
         <v>50571.837918178797</v>
@@ -39972,9 +39978,9 @@
         <f>_xlfn.XLOOKUP(K1156,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1156" t="e">
+      <c r="B1156">
         <f>_xlfn.XLOOKUP(L1156,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1156">
         <v>58808.814216680497</v>
@@ -40920,9 +40926,9 @@
         <f>_xlfn.XLOOKUP(K1188,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1188" t="e">
+      <c r="B1188">
         <f>_xlfn.XLOOKUP(L1188,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1188">
         <v>192813.694724364</v>
